--- a/Distinguishable/WCAG_1.4.4_ResizeText_Narayanan_Palani_TestCase_v1.xlsx
+++ b/Distinguishable/WCAG_1.4.4_ResizeText_Narayanan_Palani_TestCase_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Udemy_Supreme_Quality\13 Write Accessibility Testing-Test Cases\GithubRepo\webAccessibilityTestCases\Distinguishable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64807C1A-CB80-479D-BDF4-4C9F5807A18D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDAB750-2359-41EE-87F1-DC1C9D6ED3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20730" yWindow="525" windowWidth="15375" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -162,11 +162,11 @@
     <t>Step 3</t>
   </si>
   <si>
-    <t>User Zoom Text tool to zoom the page and test 1.4.4 of WCAG:Zoom the web page to 200% to see how the text are expanded to read the text</t>
-  </si>
-  <si>
     <t>This test case has been written to verify that resize text works on AUT: Except for captions and images of text, text can be resized without assistive technology up to 200 percent without loss of content or functionality
 Refer to the WCAG Guidelines:https://www.w3.org/TR/UNDERSTANDING-WCAG20/visual-audio-contrast-scale.html</t>
+  </si>
+  <si>
+    <t>Use Zoom Text tool to zoom the page and test 1.4.4 of WCAG:Zoom the web page to 200% to see how the text are expanded to read the text</t>
   </si>
 </sst>
 </file>
@@ -317,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -360,29 +360,44 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,13 +767,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="4"/>
       <c r="H1" s="1"/>
     </row>
@@ -818,7 +833,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="8" t="str">
@@ -941,65 +956,68 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:11" s="26" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:11" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="F16" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
